--- a/Citator_Tagmapping_Report.xlsx
+++ b/Citator_Tagmapping_Report.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Element-wise Comparision" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Element-wise Comparision'!$A$1:$N$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Element-wise Comparision'!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>LLRosetta Element</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>/CITATORDOC/cttr:body/cttr:content/cttr:summary/p/text/ci:cite</t>
+  </si>
+  <si>
+    <t>(@searchtype,@status,@normcite)</t>
   </si>
   <si>
     <t>remotelink</t>
@@ -411,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -439,7 +442,6 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -453,16 +455,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,15 +470,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,10 +507,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,36 +525,20 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +555,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,14 +585,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,19 +625,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,163 +769,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,15 +843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -865,17 +858,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,20 +884,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,150 +934,150 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
@@ -1497,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2035,7 +2037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="1:14">
+    <row r="19" ht="25.5" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
@@ -2050,7 +2052,7 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>11</v>
@@ -2059,11 +2061,9 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" ht="38.25" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -2080,20 +2080,18 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" ht="38.25" spans="1:14">
       <c r="A21" s="7" t="s">
@@ -2110,7 +2108,7 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>11</v>
@@ -2119,11 +2117,9 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" ht="38.25" spans="1:14">
       <c r="A22" s="7" t="s">
@@ -2140,20 +2136,18 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" ht="25.5" spans="1:14">
       <c r="A23" s="7" t="s">
@@ -2258,7 +2252,7 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>11</v>
@@ -2267,11 +2261,9 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" ht="25.5" spans="1:14">
       <c r="A27" s="7" t="s">
@@ -2349,7 +2341,7 @@
         <v>77</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2363,29 +2355,29 @@
     </row>
     <row r="30" ht="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>55</v>
@@ -2393,7 +2385,7 @@
     </row>
     <row r="31" ht="25.5" spans="1:14">
       <c r="A31" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>11</v>
@@ -2402,11 +2394,11 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>11</v>
@@ -2415,43 +2407,41 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N31" s="11"/>
     </row>
     <row r="32" ht="38.25" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" ht="25.5" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>11</v>
@@ -2460,11 +2450,11 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>11</v>
@@ -2473,13 +2463,13 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N33" s="11"/>
     </row>
     <row r="34" ht="30" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>11</v>
@@ -2488,11 +2478,11 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>11</v>
@@ -2501,7 +2491,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>55</v>
@@ -2509,7 +2499,7 @@
     </row>
     <row r="35" ht="38.25" spans="1:14">
       <c r="A35" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>11</v>
@@ -2518,11 +2508,11 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>11</v>
@@ -2531,15 +2521,13 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -2548,11 +2536,11 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>11</v>
@@ -2561,13 +2549,13 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>11</v>
@@ -2576,11 +2564,11 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>11</v>
@@ -2589,35 +2577,35 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N37" s="11"/>
     </row>
     <row r="38" ht="30" spans="1:14">
       <c r="A38" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>55</v>
@@ -2625,7 +2613,7 @@
     </row>
     <row r="39" ht="30" spans="1:14">
       <c r="A39" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>11</v>
@@ -2634,11 +2622,11 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>11</v>
@@ -2647,7 +2635,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>55</v>
@@ -2655,7 +2643,7 @@
     </row>
     <row r="40" ht="30" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
@@ -2664,11 +2652,11 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>11</v>
@@ -2677,7 +2665,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>55</v>
@@ -2685,29 +2673,29 @@
     </row>
     <row r="41" ht="30" spans="1:14">
       <c r="A41" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>55</v>
@@ -2715,7 +2703,7 @@
     </row>
     <row r="42" ht="30" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>11</v>
@@ -2724,11 +2712,11 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>11</v>
@@ -2737,7 +2725,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>55</v>
@@ -2745,7 +2733,7 @@
     </row>
     <row r="43" ht="30" spans="1:14">
       <c r="A43" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>11</v>
@@ -2754,11 +2742,11 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>11</v>
@@ -2767,7 +2755,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>55</v>
@@ -2775,29 +2763,29 @@
     </row>
     <row r="44" ht="30" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>55</v>
@@ -2805,7 +2793,7 @@
     </row>
     <row r="45" ht="30" spans="1:14">
       <c r="A45" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>11</v>
@@ -2814,11 +2802,11 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>11</v>
@@ -2827,7 +2815,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>55</v>
@@ -2835,29 +2823,29 @@
     </row>
     <row r="46" ht="30" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>55</v>
@@ -2865,7 +2853,7 @@
     </row>
     <row r="47" ht="30" spans="1:14">
       <c r="A47" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>11</v>
@@ -2874,11 +2862,11 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>11</v>
@@ -2887,7 +2875,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>55</v>
@@ -2895,7 +2883,7 @@
     </row>
     <row r="48" ht="30" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>11</v>
@@ -2904,11 +2892,11 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>11</v>
@@ -2917,7 +2905,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>55</v>
@@ -2925,29 +2913,29 @@
     </row>
     <row r="49" ht="30" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>55</v>
@@ -2955,29 +2943,29 @@
     </row>
     <row r="50" ht="30" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>55</v>
@@ -2985,29 +2973,29 @@
     </row>
     <row r="51" ht="30" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N51" s="11" t="s">
         <v>55</v>
@@ -3015,7 +3003,7 @@
     </row>
     <row r="52" ht="30" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>11</v>
@@ -3024,11 +3012,11 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>11</v>
@@ -3037,7 +3025,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>55</v>
